--- a/common-template/src/main/resources/excel/skill.xlsx
+++ b/common-template/src/main/resources/excel/skill.xlsx
@@ -71,13 +71,13 @@
     <t>1</t>
   </si>
   <si>
-    <t>10;100</t>
+    <t>10,100</t>
   </si>
   <si>
     <t>保底平A</t>
   </si>
   <si>
-    <t>10;200</t>
+    <t>10,200</t>
   </si>
   <si>
     <t xml:space="preserve">傻呆呆平A, 给自己挂一个反伤持续一回合的反伤, 反伤为受到伤害的30%(作为真实伤害), 造成 攻击力 的 200% </t>
@@ -86,7 +86,7 @@
     <t>1,2</t>
   </si>
   <si>
-    <t>10,150;120002</t>
+    <t>10*150,120002</t>
   </si>
   <si>
     <t>傻呆呆小技能, 对所有敌人造成攻击力150%的伤害, 同时施加泯灭效果</t>
@@ -1267,7 +1267,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1347,11 +1347,10 @@
       <c r="B3" s="4">
         <v>0</v>
       </c>
-      <c r="C3"/>
+      <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
         <v>14</v>
@@ -1370,16 +1369,16 @@
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>2</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>120001</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -1399,12 +1398,14 @@
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
+      <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
         <v>19</v>
       </c>
@@ -1422,12 +1423,14 @@
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E6">
         <v>3</v>
       </c>
+      <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1445,12 +1448,14 @@
       <c r="B7">
         <v>0</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E7">
         <v>3</v>
       </c>
+      <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
         <v>19</v>
       </c>
